--- a/dataArchive/testData.xlsx
+++ b/dataArchive/testData.xlsx
@@ -367,9 +367,6 @@
     <t>Hawaii</t>
   </si>
   <si>
-    <t>qauser1</t>
-  </si>
-  <si>
     <t>Relationship (If Other)</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>billings</t>
+  </si>
+  <si>
+    <t>sit1.user1</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15"/>
@@ -1212,24 +1212,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>123</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1">
@@ -2108,7 +2108,7 @@
         <v>99</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>96</v>
@@ -2138,7 +2138,7 @@
         <v>87</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P1" s="40" t="s">
         <v>38</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="2" spans="1:16" ht="51">
       <c r="A2" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>27</v>
@@ -2158,7 +2158,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>101</v>
@@ -2188,7 +2188,7 @@
         <v>92</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P2" s="41" t="s">
         <v>93</v>

--- a/dataArchive/testData.xlsx
+++ b/dataArchive/testData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="21270" windowHeight="9570"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPageUC" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="ProfilePage-AccessSharing" sheetId="11" r:id="rId9"/>
     <sheet name="HealthTracker-Weight" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>USERNAME</t>
   </si>
@@ -398,6 +399,9 @@
   </si>
   <si>
     <t>sit1.user1</t>
+  </si>
+  <si>
+    <t>akash.demo2</t>
   </si>
 </sst>
 </file>
@@ -407,69 +411,169 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="28">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
       <color theme="10"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
       <color theme="10"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
+      <name val="Consolas"/>
       <color rgb="FF222222"/>
-      <name val="Consolas"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <name val="Arial"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -503,18 +607,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.599960"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -529,7 +790,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -542,7 +805,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -553,7 +818,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -566,7 +833,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -581,7 +850,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -594,7 +865,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -603,7 +876,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -616,7 +891,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -627,7 +904,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -640,7 +919,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -653,7 +934,9 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -666,7 +949,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -681,22 +966,26 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -705,7 +994,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -716,91 +1007,250 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="22" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="21" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="23" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -809,16 +1259,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,38 +1301,38 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,12 +1342,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - Accent6" xfId="47" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="28" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="32" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="36" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="40" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="44" builtinId="49"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="18" builtinId="23"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Explanatory Text" xfId="48" builtinId="53"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Good" xfId="21" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="11" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="13" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="14" builtinId="19"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="15" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="19" builtinId="24"/>
+    <cellStyle name="Neutral" xfId="23" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Output" xfId="16" builtinId="21"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="Total" xfId="20" builtinId="25"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1190,21 +1685,21 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15.000000"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.42578125" style="1"/>
+    <col min="1" max="1" style="1" width="12.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="15.57642828" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="16.71928488" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="19.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="13.86214243" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="1" width="9.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="16384" style="1" width="9.43357168" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16.500000">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1218,9 +1713,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="34.050000">
       <c r="A2" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>93</v>
@@ -1232,55 +1727,55 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1">
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="16.500000">
       <c r="A3" s="2"/>
       <c r="B3" s="45"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1">
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="16.500000">
       <c r="A4" s="2"/>
       <c r="B4" s="46"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1">
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="16.500000">
       <c r="A5" s="2"/>
       <c r="B5" s="46"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="16.500000">
       <c r="A6" s="2"/>
       <c r="B6" s="46"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1">
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="16.500000">
       <c r="A7" s="2"/>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1">
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="16.500000">
       <c r="A8" s="2"/>
       <c r="B8" s="46"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1">
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="16.500000">
       <c r="A9" s="2"/>
       <c r="B9" s="46"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
     </row>
-    <row r="10" spans="1:4" s="3" customFormat="1">
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="16.500000">
       <c r="A10" s="2"/>
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
     </row>
-    <row r="11" spans="1:4" s="3" customFormat="1">
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="16.500000">
       <c r="A11" s="2"/>
       <c r="B11" s="46"/>
       <c r="C11" s="47"/>
@@ -1289,10 +1784,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId0" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="1.00" right="1.00" top="1.00" bottom="1.00" header="1.00" footer="1.00"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1304,12 +1799,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.750000"/>
   <cols>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.29071508" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5">
+    <row r="1" spans="1:4" ht="25.500000">
       <c r="A1" s="37" t="s">
         <v>104</v>
       </c>
@@ -1339,7 +1834,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
@@ -1352,14 +1847,14 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15.000000" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.42578125" style="1"/>
+    <col min="1" max="1" style="1" width="14.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="14.57642828" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="19.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="12.57642828" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="9.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="16384" style="1" width="9.43357168" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1502,8 +1997,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="1.00" right="1.00" top="1.00" bottom="1.00" header="1.00" footer="1.00"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1515,27 +2010,27 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15.000000" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.42578125" style="1"/>
+    <col min="1" max="1" style="1" width="12.29071413" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="13.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="9.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="10.71928583" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="27.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="1" width="16.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="1" width="17.29071508" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="1" width="12.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="1" width="13.57642828" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="1" width="12.71928583" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" style="1" width="13.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" style="1" width="14.29071413" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="13" style="1" width="15.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" style="1" width="16.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" style="1" width="14.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16" style="1" width="13.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="17" style="1" width="20.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" style="1" width="9.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="16384" style="1" width="9.43357168" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1561,7 +2056,7 @@
       <c r="P1" s="49"/>
       <c r="Q1" s="49"/>
     </row>
-    <row r="2" spans="1:17" ht="30">
+    <row r="2" spans="1:17" ht="30.000000">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -1614,7 +2109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="60.75">
+    <row r="3" spans="1:17" ht="60.750000">
       <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
@@ -1674,10 +2169,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink r:id="rId0" ref="E3"/>
   </hyperlinks>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="1.00" right="1.00" top="1.00" bottom="1.00" header="1.00" footer="1.00"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1689,14 +2184,14 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.750000"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.86214243" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="15.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="12.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="11.86214243" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="14.71928583" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="13.43357168" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1766,7 +2261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="25.5">
+    <row r="3" spans="1:15" ht="25.500000">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -1820,11 +2315,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink r:id="rId0" ref="C3"/>
+    <hyperlink r:id="rId1" ref="K3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1836,17 +2331,17 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.750000"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="13.29071413" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="13.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="12.71928583" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="13.71928583" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="18.43357168" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5">
+    <row r="1" spans="1:6" ht="25.500000">
       <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
@@ -1866,7 +2361,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51">
+    <row r="2" spans="1:6" ht="51.000000">
       <c r="A2" s="27" t="s">
         <v>61</v>
       </c>
@@ -1889,10 +2384,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink r:id="rId0" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1904,11 +2399,11 @@
       <selection activeCell="H8" sqref="H6:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.750000" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="17.57642828" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="17.71928488" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1922,7 +2417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5">
+    <row r="2" spans="1:3" ht="25.500000">
       <c r="A2" s="30" t="s">
         <v>65</v>
       </c>
@@ -1935,8 +2430,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1948,14 +2443,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.750000" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.71928583" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="12.57642828" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="14.29071413" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5">
+    <row r="1" spans="1:4" ht="25.500000">
       <c r="A1" s="29" t="s">
         <v>67</v>
       </c>
@@ -1969,7 +2464,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5">
+    <row r="2" spans="1:4" ht="25.500000">
       <c r="A2" s="27" t="s">
         <v>71</v>
       </c>
@@ -1985,8 +2480,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1998,10 +2493,10 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.750000" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.71928583" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="11.57642828" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2018,7 +2513,7 @@
       </c>
       <c r="F1" s="56"/>
     </row>
-    <row r="2" spans="1:6" ht="38.25">
+    <row r="2" spans="1:6" ht="38.250000">
       <c r="A2" s="33" t="s">
         <v>76</v>
       </c>
@@ -2065,7 +2560,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
@@ -2078,23 +2573,23 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.750000"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.29071413" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="10.86214243" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="14.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="5" width="12.71928583" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="13.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="14.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="13.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="19.71928488" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="30.71928488" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="22.29071508" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" width="12.29071413" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16" width="15.57642828" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" customHeight="1">
+    <row r="1" spans="1:16" ht="31.500000" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>94</v>
       </c>
@@ -2144,7 +2639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="51">
+    <row r="2" spans="1:16" ht="51.000000">
       <c r="A2" s="27" t="s">
         <v>119</v>
       </c>
@@ -2244,7 +2739,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>